--- a/bot/data/new_wb.xlsx
+++ b/bot/data/new_wb.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="общий отчет" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,14 +412,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Дата, на которую было дз</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>12.03.2021</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Номера задач</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Богданова Александра</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Горшенина Ольга</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Золо Иван</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Иванов Иван</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Сидоров Антон</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Член Залупа</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/bot/data/new_wb.xlsx
+++ b/bot/data/new_wb.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="A1:F8"/>
@@ -420,9 +420,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -441,6 +445,26 @@
           <t>12.09.2023</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>12.03.2021</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>12.03.2021</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +512,76 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Член Залупа</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Богданова Александра</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Горшенина Ольга</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Золо Иван</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Иванов Иван</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Сидоров Антон</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Богданова Александра</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Горшенина Ольга</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Золо Иван</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Иванов Иван</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Сидоров Антон</t>
         </is>
       </c>
     </row>

--- a/bot/data/new_wb.xlsx
+++ b/bot/data/new_wb.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="общий отчет" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,21 +413,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,26 +442,6 @@
           <t>12.09.2023</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>12.03.2021</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>12.09.2023</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>12.03.2021</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>12.09.2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,83 +480,6 @@
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
-        <is>
-          <t>Сидоров Антон</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Член Залупа</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Богданова Александра</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Горшенина Ольга</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Золо Иван</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Иванов Иван</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Сидоров Антон</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Богданова Александра</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Горшенина Ольга</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Золо Иван</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Иванов Иван</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
         <is>
           <t>Сидоров Антон</t>
         </is>

--- a/bot/data/new_wb.xlsx
+++ b/bot/data/new_wb.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,13 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,9 +443,14 @@
           <t>12.03.2021</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>15.12.2024</t>
         </is>
       </c>
     </row>
@@ -447,6 +458,46 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Номера задач</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>567</t>
         </is>
       </c>
     </row>

--- a/bot/data/new_wb.xlsx
+++ b/bot/data/new_wb.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,14 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="8" max="8"/>
     <col width="4" customWidth="1" min="9" max="9"/>
+    <col width="4" customWidth="1" min="10" max="10"/>
+    <col width="4" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,12 +445,12 @@
           <t>12.03.2021</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>12.09.2023</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>15.12.2024</t>
         </is>
@@ -472,30 +474,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>234</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>345</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>567</t>
         </is>
@@ -507,6 +519,56 @@
           <t>Богданова Александра</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,6 +576,56 @@
           <t>Горшенина Ольга</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -521,6 +633,56 @@
           <t>Золо Иван</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -528,11 +690,209 @@
           <t>Иванов Иван</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t>Сидоров Антон</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>в среднем, %</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+  13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>+  20</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+  0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-  87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-  80</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-  100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>задачи, которые сделали меньше трети учеников</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>567</t>
         </is>
       </c>
     </row>
